--- a/KetQuaTest_DashboardDao.xlsx
+++ b/KetQuaTest_DashboardDao.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -41,12 +41,12 @@
     <t>Đếm đơn thành công hôm nay</t>
   </si>
   <si>
-    <t>Có 1 đơn Success, 1 đơn Processing</t>
-  </si>
-  <si>
     <t>Today</t>
   </si>
   <si>
+    <t>1 success + 1 processing</t>
+  </si>
+  <si>
     <t>Count = 1</t>
   </si>
   <si>
@@ -56,13 +56,25 @@
     <t>PASS</t>
   </si>
   <si>
+    <t>DASH_09</t>
+  </si>
+  <si>
+    <t>Top sản phẩm theo ngày</t>
+  </si>
+  <si>
+    <t>1 đơn hôm nay = 1tr</t>
+  </si>
+  <si>
+    <t>Doanh thu = 1tr</t>
+  </si>
+  <si>
     <t>DASH_02</t>
   </si>
   <si>
-    <t>Doanh thu hôm nay (Lọc)</t>
-  </si>
-  <si>
-    <t>Lọc startDate = endDate = Hôm nay</t>
+    <t>Doanh thu hôm nay</t>
+  </si>
+  <si>
+    <t>1 đơn thành công</t>
   </si>
   <si>
     <t>1.000.000</t>
@@ -71,43 +83,79 @@
     <t>DASH_01</t>
   </si>
   <si>
-    <t>Tổng doanh thu toàn thời gian</t>
-  </si>
-  <si>
-    <t>1tr + 500k + 2tr (Đã giao)</t>
-  </si>
-  <si>
-    <t>Chỉ tính đơn thành công</t>
-  </si>
-  <si>
-    <t>Total = 3.500.000</t>
+    <t>Tổng doanh thu</t>
+  </si>
+  <si>
+    <t>Data Setup</t>
+  </si>
+  <si>
+    <t>3 đơn thành công</t>
+  </si>
+  <si>
+    <t>3.500.000</t>
   </si>
   <si>
     <t>DASH_05</t>
   </si>
   <si>
-    <t>Thống kê trạng thái (Pie Chart)</t>
-  </si>
-  <si>
-    <t>3 Success, 1 Processing</t>
-  </si>
-  <si>
-    <t>Data Setup</t>
-  </si>
-  <si>
-    <t>List size = 2 nhóm</t>
+    <t>Pie chart trạng thái</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>3 success, 1 processing</t>
+  </si>
+  <si>
+    <t>List &gt;= 1</t>
   </si>
   <si>
     <t>DASH_04</t>
   </si>
   <si>
-    <t>Dữ liệu biểu đồ 7 ngày</t>
-  </si>
-  <si>
-    <t>Có đơn hôm nay và hôm qua</t>
-  </si>
-  <si>
-    <t>List size &gt;= 2</t>
+    <t>Biểu đồ 7 ngày</t>
+  </si>
+  <si>
+    <t>Có đơn hôm nay &amp; hôm qua</t>
+  </si>
+  <si>
+    <t>List &gt;= 2</t>
+  </si>
+  <si>
+    <t>DASH_07</t>
+  </si>
+  <si>
+    <t>Tổng khách hàng</t>
+  </si>
+  <si>
+    <t>User test tồn tại</t>
+  </si>
+  <si>
+    <t>&gt;= 1</t>
+  </si>
+  <si>
+    <t>DASH_06</t>
+  </si>
+  <si>
+    <t>Tổng đơn thành công</t>
+  </si>
+  <si>
+    <t>3 success</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>DASH_08</t>
+  </si>
+  <si>
+    <t>Top sản phẩm bán chạy</t>
+  </si>
+  <si>
+    <t>Các đơn cùng 1 sản phẩm</t>
+  </si>
+  <si>
+    <t>List &gt; 0 + name</t>
   </si>
 </sst>
 </file>
@@ -185,16 +233,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="9.37109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.35546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="32.765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="22.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.80859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="26.21484375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.06640625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
@@ -254,10 +302,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -277,13 +325,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -294,19 +342,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -317,16 +365,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
@@ -335,6 +383,98 @@
         <v>12</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>13</v>
       </c>
     </row>
